--- a/Импорт/1.xlsx
+++ b/Импорт/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MDK_01.06_PR11\Импорт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A02F43-E520-4620-A239-2ADEE1E9C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31352129-B1FA-49C0-8E31-BC039F18409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="1320" windowWidth="16860" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="1680" windowWidth="16860" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Код</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Контрагент5</t>
+  </si>
+  <si>
+    <t>000000001</t>
+  </si>
+  <si>
+    <t>000000002</t>
+  </si>
+  <si>
+    <t>000000003</t>
+  </si>
+  <si>
+    <t>000000004</t>
+  </si>
+  <si>
+    <t>000000005</t>
   </si>
 </sst>
 </file>
@@ -81,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -368,59 +382,60 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
